--- a/intersection/Ningens_WGS_genes.xlsx
+++ b/intersection/Ningens_WGS_genes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wengz\Dropbox\Chapter 3\Nebria_ingens_WGS\intersection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48620AE-97B9-43B2-96AD-18BEA84671D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E47862-A11A-4053-A87D-912B8C4F9004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="220">
   <si>
     <t>Nriv.00g001990</t>
   </si>
@@ -381,33 +381,18 @@
     <t>gene</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>references</t>
-  </si>
-  <si>
     <t>PREDICTED: forkhead box protein K1</t>
   </si>
   <si>
     <t>FOXK1</t>
   </si>
   <si>
-    <t>regulates HIF1alpha</t>
-  </si>
-  <si>
-    <t>He et al, 2018</t>
-  </si>
-  <si>
     <t>polypyrimidine tract-binding protein 1</t>
   </si>
   <si>
     <t>PTBP1</t>
   </si>
   <si>
-    <t>Yan et al, 2021</t>
-  </si>
-  <si>
     <t>cytoplasmic FMR1-interacting protein</t>
   </si>
   <si>
@@ -441,9 +426,6 @@
     <t>dynein heavy chain 3, axonemal</t>
   </si>
   <si>
-    <t>mediator of RNA polymerase II transcription subunit 12 isoform X1 [Orussus abietinus]</t>
-  </si>
-  <si>
     <t>MED12L</t>
   </si>
   <si>
@@ -453,9 +435,6 @@
     <t>Rac1</t>
   </si>
   <si>
-    <t>Hirota and Semenza, 2001</t>
-  </si>
-  <si>
     <t>PREDICTED: OTU domain-containing protein 5-A</t>
   </si>
   <si>
@@ -486,9 +465,6 @@
     <t>MUC17</t>
   </si>
   <si>
-    <t>Kitamoto et al, 2012</t>
-  </si>
-  <si>
     <t>PREDICTED: dynamin-like 120 kDa protein, mitochondrial isoform X1</t>
   </si>
   <si>
@@ -501,27 +477,18 @@
     <t>E3 ubiquitin-protein ligase HUWE1 isoform X3</t>
   </si>
   <si>
-    <t>Chen et al, 2016</t>
-  </si>
-  <si>
     <t>collagen alpha-1(XV) chain isoform X6</t>
   </si>
   <si>
     <t>COL15A1</t>
   </si>
   <si>
-    <t>Lambertini et al, 2021</t>
-  </si>
-  <si>
     <t>sn1-specific diacylglycerol lipase beta-like</t>
   </si>
   <si>
     <t>anosmin-1</t>
   </si>
   <si>
-    <t>Jian et al, 2009</t>
-  </si>
-  <si>
     <t>PREDICTED: WASH complex subunit 7</t>
   </si>
   <si>
@@ -534,9 +501,6 @@
     <t>FAK</t>
   </si>
   <si>
-    <t>Muz et al, 2019</t>
-  </si>
-  <si>
     <t>PREDICTED: LOW QUALITY PROTEIN: piezo-type mechanosensitive ion channel component-like</t>
   </si>
   <si>
@@ -576,23 +540,160 @@
     <t>related to HIF1alpha</t>
   </si>
   <si>
-    <t>Krishnan et al, 2008</t>
-  </si>
-  <si>
     <t>PREDICTED: choline O-acetyltransferase</t>
   </si>
   <si>
     <t>PREDICTED: LOW QUALITY PROTEIN: acetyl-coenzyme A transporter 1</t>
   </si>
   <si>
-    <t>Khatib et al, 2016</t>
+    <t>microtubule-associated protein 1B-like</t>
+  </si>
+  <si>
+    <t>MAP1B</t>
+  </si>
+  <si>
+    <t>general transcription factor 3C polypeptide 1</t>
+  </si>
+  <si>
+    <t>GTF3C1</t>
+  </si>
+  <si>
+    <t>PREDICTED: LOW QUALITY PROTEIN: latrophilin Cirl</t>
+  </si>
+  <si>
+    <t>protein FAM193A isoform X2</t>
+  </si>
+  <si>
+    <t>calcium-binding mitochondrial carrier protein SCaMC-2 isoform X1</t>
+  </si>
+  <si>
+    <t>insulin receptor substrate 1 isoform X7</t>
+  </si>
+  <si>
+    <t>PREDICTED: uncharacterized protein LOC109622862 isoform X7</t>
+  </si>
+  <si>
+    <t>PREDICTED: uncharacterized protein LOC108563825 isoform X1</t>
+  </si>
+  <si>
+    <t>PREDICTED: uncharacterized protein LOC657053 isoform X2</t>
+  </si>
+  <si>
+    <t>PREDICTED: IQ motif and SEC7 domain-containing protein 1 isoform X2</t>
+  </si>
+  <si>
+    <t>IQSEC1</t>
+  </si>
+  <si>
+    <t>PREDICTED: protein gooseberry isoform X1</t>
+  </si>
+  <si>
+    <t>PREDICTED: LOW QUALITY PROTEIN: protogenin B-like</t>
+  </si>
+  <si>
+    <t>integrator complex subunit 8</t>
+  </si>
+  <si>
+    <t>PREDICTED: protein sickie isoform X6</t>
+  </si>
+  <si>
+    <t>PREDICTED: tyrosine-protein phosphatase 99A isoform X3</t>
+  </si>
+  <si>
+    <t>PREDICTED: transformation/transcription domain-associated protein</t>
+  </si>
+  <si>
+    <t>mediator of RNA polymerase II transcription subunit 25</t>
+  </si>
+  <si>
+    <t>PREDICTED: neuroligin-4, X-linked</t>
+  </si>
+  <si>
+    <t>PREDICTED: uncharacterized protein LOC109602904 isoform X2</t>
+  </si>
+  <si>
+    <t>HUWE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTS8 </t>
+  </si>
+  <si>
+    <t>TRRAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MED25</t>
+  </si>
+  <si>
+    <t>NLGN4X</t>
+  </si>
+  <si>
+    <t>Expression in response to hypoxia, mediated by HIF-1α</t>
+  </si>
+  <si>
+    <t>sn1-DAGLβ
+DAGLB</t>
+  </si>
+  <si>
+    <t>Development/lipid metabolic process</t>
+  </si>
+  <si>
+    <t>angiogenesis; cell adhesion Source; endothelial cell morphogenesis; extracellular matrix organization; signal transduction</t>
+  </si>
+  <si>
+    <t>GO - Biological process</t>
+  </si>
+  <si>
+    <t>function of interest</t>
+  </si>
+  <si>
+    <t>axon guidance; cell adhesion; chemotaxis; neuron differentiation</t>
+  </si>
+  <si>
+    <t>hypoxia could induces anosmin-1 expression</t>
+  </si>
+  <si>
+    <t>Dnah3</t>
+  </si>
+  <si>
+    <t>microtubule-based movement; response to auditory stimulus; sperm competition</t>
+  </si>
+  <si>
+    <t>canonical glycolysis; cell differentiation; cellular glucose homeostasis; muscle organ development Source; negative regulation of autophagy; negative regulation of transcription, DNA-templated; positive regulation of transcription, DNA-templated; regulation of glucose metabolic process; regulation of transcription by RNA polymerase II Source; response to starvation</t>
+  </si>
+  <si>
+    <t>negative regulation of synaptic assembly at neuromuscular junction; signal complex assembly</t>
+  </si>
+  <si>
+    <t>References Species</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>the absence of FAK reduced the expression of HIF-1α</t>
+  </si>
+  <si>
+    <t>mediator of RNA polymerase II transcription subunit 12 isoform X1</t>
+  </si>
+  <si>
+    <t>regulation of transcription by RNA polymerase II</t>
+  </si>
+  <si>
+    <t>cation channel activity; mechanosensitive ion channel</t>
+  </si>
+  <si>
+    <t>regulates the expression of genes associated with glycolysis and downstream anabolic pathways, such as HIF1A, thereby regulating glucose metabolism</t>
+  </si>
+  <si>
+    <t>Interact with HIF-1α</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,14 +709,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -639,11 +747,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -652,11 +759,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,21 +1042,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="63.7265625" customWidth="1"/>
-    <col min="5" max="5" width="42.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="46.90625" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -960,16 +1071,22 @@
         <v>116</v>
       </c>
       <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -977,27 +1094,36 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1005,13 +1131,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1019,21 +1148,39 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1041,10 +1188,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1052,19 +1208,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1072,16 +1228,19 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1089,44 +1248,56 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1134,33 +1305,30 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="F14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1168,13 +1336,13 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1182,13 +1350,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>126</v>
+        <v>219</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1199,7 +1367,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1210,13 +1378,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -1226,10 +1406,10 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" t="s">
-        <v>178</v>
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1240,10 +1420,10 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" t="s">
-        <v>180</v>
+        <v>167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1254,10 +1434,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" t="s">
-        <v>182</v>
+        <v>169</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1268,13 +1448,10 @@
         <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>183</v>
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1285,10 +1462,10 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" t="s">
-        <v>144</v>
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1299,10 +1476,10 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1313,7 +1490,7 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1324,10 +1501,10 @@
         <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" t="s">
-        <v>130</v>
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1338,7 +1515,7 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1349,10 +1526,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1363,10 +1537,10 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1377,7 +1551,7 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1388,7 +1562,7 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1399,7 +1573,7 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1409,6 +1583,12 @@
       <c r="B34" t="s">
         <v>62</v>
       </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -1417,6 +1597,12 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -1425,6 +1611,9 @@
       <c r="B36" t="s">
         <v>66</v>
       </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -1433,8 +1622,11 @@
       <c r="B37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -1442,7 +1634,7 @@
         <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1453,13 +1645,10 @@
         <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1469,13 +1658,19 @@
       <c r="B40" t="s">
         <v>74</v>
       </c>
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1485,6 +1680,9 @@
       <c r="B42" t="s">
         <v>78</v>
       </c>
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -1493,6 +1691,9 @@
       <c r="B43" t="s">
         <v>80</v>
       </c>
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -1502,15 +1703,18 @@
         <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>83</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1520,6 +1724,12 @@
       <c r="B46" t="s">
         <v>86</v>
       </c>
+      <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -1528,6 +1738,9 @@
       <c r="B47" t="s">
         <v>88</v>
       </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -1536,6 +1749,9 @@
       <c r="B48" t="s">
         <v>90</v>
       </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -1545,10 +1761,10 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1559,10 +1775,10 @@
         <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="F50" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1572,8 +1788,14 @@
       <c r="B51" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -1581,10 +1803,10 @@
         <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+      <c r="F52" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1594,19 +1816,39 @@
       <c r="B53" t="s">
         <v>100</v>
       </c>
+      <c r="C53" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="C54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>103</v>
       </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -1615,6 +1857,12 @@
       <c r="B56" t="s">
         <v>105</v>
       </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -1623,6 +1871,12 @@
       <c r="B57" t="s">
         <v>107</v>
       </c>
+      <c r="C57" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -1632,7 +1886,7 @@
         <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1642,6 +1896,12 @@
       <c r="B59" t="s">
         <v>111</v>
       </c>
+      <c r="C59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -1650,24 +1910,15 @@
       <c r="B60" t="s">
         <v>113</v>
       </c>
+      <c r="C60" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F61">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
     <sortCondition ref="A2:A61"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{54AC6EB9-C6E1-46BA-8AAD-533D387367E4}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{464CD5E7-E012-49A5-89F3-8D45DB9CCF9B}"/>
-    <hyperlink ref="F13" r:id="rId3" xr:uid="{FB23E56A-51B8-4BD2-9E9E-F31C8738BF45}"/>
-    <hyperlink ref="F39" r:id="rId4" xr:uid="{14A52B65-5645-464B-9EAB-DBB2E3E9F5D7}"/>
-    <hyperlink ref="F50" r:id="rId5" xr:uid="{D98E698E-AD24-441F-A063-8D0CB876191C}"/>
-    <hyperlink ref="F2" r:id="rId6" xr:uid="{9239B7DC-F542-4375-B143-8CA0C050F07B}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{F8208C25-5F2F-4233-A20D-F3B1705CF8DA}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{5A2BD2B6-6934-4325-8B41-F4849AF531E9}"/>
-    <hyperlink ref="F23" r:id="rId9" xr:uid="{87FFB2FA-AD1A-466F-B785-F0ECFCC4346C}"/>
-    <hyperlink ref="F29" r:id="rId10" xr:uid="{499F0EC6-E2A3-4763-B926-5A63F1238CB4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>